--- a/1/9/1/PIB 2003 a 2020 - Anual.xlsx
+++ b/1/9/1/PIB 2003 a 2020 - Anual.xlsx
@@ -588,7 +588,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C14">
         <v>3.2</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="C19">
         <v>2.7</v>
